--- a/Data/CMC_dur.xlsx
+++ b/Data/CMC_dur.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="13">
   <si>
     <t xml:space="preserve">product</t>
   </si>
@@ -57,6 +57,9 @@
   <si>
     <t xml:space="preserve">G1SST</t>
   </si>
+  <si>
+    <t xml:space="preserve">SACTN</t>
+  </si>
 </sst>
 </file>
 
@@ -70,6 +73,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -151,13 +155,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D304"/>
+  <dimension ref="A1:D318"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A302" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B311" activeCellId="1" sqref="A305:A310 B311"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A284" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D318" activeCellId="0" sqref="D318"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.24"/>
   </cols>
@@ -4410,6 +4414,202 @@
       </c>
       <c r="D304" s="0" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B305" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C305" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D305" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B306" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C306" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D306" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B307" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C307" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D307" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B308" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C308" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D308" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B309" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C309" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D309" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B310" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C310" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D310" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B311" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C311" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D311" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B312" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C312" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D312" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B313" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C313" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D313" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B314" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C314" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D314" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B315" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C315" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D315" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B316" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C316" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D316" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B317" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C317" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D317" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B318" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C318" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D318" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
